--- a/machine learning/fish_poly_scaled.xlsx
+++ b/machine learning/fish_poly_scaled.xlsx
@@ -496,22 +496,22 @@
         <v>-1.89617489161733</v>
       </c>
       <c r="D2" t="n">
-        <v>3.708586010994661</v>
+        <v>-1.49794293044857</v>
       </c>
       <c r="E2" t="n">
-        <v>3.556233604688979</v>
+        <v>-1.428186484450081</v>
       </c>
       <c r="F2" t="n">
-        <v>3.381553467934843</v>
+        <v>-1.403938506227533</v>
       </c>
       <c r="G2" t="n">
-        <v>3.290050586589036</v>
+        <v>-1.358064001247408</v>
       </c>
       <c r="H2" t="n">
-        <v>3.122527010273646</v>
+        <v>-1.335908159448733</v>
       </c>
       <c r="I2" t="n">
-        <v>2.755506598865163</v>
+        <v>-1.300664805979154</v>
       </c>
       <c r="J2" t="n">
         <v>1.931521411603214</v>
@@ -525,25 +525,25 @@
         <v>-1.518703263446816</v>
       </c>
       <c r="C3" t="n">
-        <v>-1.560773540265348</v>
+        <v>-1.560773540265349</v>
       </c>
       <c r="D3" t="n">
-        <v>1.501806450035271</v>
+        <v>-1.275112600151659</v>
       </c>
       <c r="E3" t="n">
-        <v>1.485982771847969</v>
+        <v>-1.235185608006389</v>
       </c>
       <c r="F3" t="n">
-        <v>1.60868022954134</v>
+        <v>-1.243175657838179</v>
       </c>
       <c r="G3" t="n">
-        <v>1.401792142310181</v>
+        <v>-1.19200632354184</v>
       </c>
       <c r="H3" t="n">
-        <v>1.525106480214479</v>
+        <v>-1.196934244612977</v>
       </c>
       <c r="I3" t="n">
-        <v>1.524553209443157</v>
+        <v>-1.189907004685058</v>
       </c>
       <c r="J3" t="n">
         <v>3.49650756146648</v>
@@ -557,25 +557,25 @@
         <v>-1.417039038391679</v>
       </c>
       <c r="C4" t="n">
-        <v>-1.31632848758509</v>
+        <v>-1.316328487585091</v>
       </c>
       <c r="D4" t="n">
-        <v>1.066574300800013</v>
+        <v>-1.204133349546539</v>
       </c>
       <c r="E4" t="n">
-        <v>1.102893376829595</v>
+        <v>-1.178873474490374</v>
       </c>
       <c r="F4" t="n">
-        <v>0.9885229321755837</v>
+        <v>-1.14964880145327</v>
       </c>
       <c r="G4" t="n">
-        <v>1.081553510765479</v>
+        <v>-1.14781094595351</v>
       </c>
       <c r="H4" t="n">
-        <v>0.9699570426297439</v>
+        <v>-1.121318336484517</v>
       </c>
       <c r="I4" t="n">
-        <v>0.7778974586022993</v>
+        <v>-1.085039697321311</v>
       </c>
       <c r="J4" t="n">
         <v>3.713572066704308</v>
@@ -589,25 +589,25 @@
         <v>-1.147102992555625</v>
       </c>
       <c r="C5" t="n">
-        <v>-1.202633114245436</v>
+        <v>-1.202633114245437</v>
       </c>
       <c r="D5" t="n">
-        <v>0.701903157258688</v>
+        <v>-1.13290678447938</v>
       </c>
       <c r="E5" t="n">
-        <v>0.5365173589198529</v>
+        <v>-1.071414880294582</v>
       </c>
       <c r="F5" t="n">
-        <v>0.6402913671010348</v>
+        <v>-1.086029870192993</v>
       </c>
       <c r="G5" t="n">
-        <v>0.3388925494589698</v>
+        <v>-1.013541179756582</v>
       </c>
       <c r="H5" t="n">
-        <v>0.4360415704400536</v>
+        <v>-1.02642931940493</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4738451965905443</v>
+        <v>-1.029327736036145</v>
       </c>
       <c r="J5" t="n">
         <v>3.960813169597578</v>
@@ -615,31 +615,31 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>-1.173598614061226</v>
+        <v>-1.173598614061225</v>
       </c>
       <c r="B6" t="n">
         <v>-1.147102992555625</v>
       </c>
       <c r="C6" t="n">
-        <v>-1.026405285568971</v>
+        <v>-1.026405285568972</v>
       </c>
       <c r="D6" t="n">
-        <v>0.3728303589323239</v>
+        <v>-1.056201252868594</v>
       </c>
       <c r="E6" t="n">
-        <v>0.3759930032300139</v>
+        <v>-1.036716677877509</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2461788435985091</v>
+        <v>-0.997670243442609</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3388925494589698</v>
+        <v>-1.013541179756582</v>
       </c>
       <c r="H6" t="n">
-        <v>0.2138430102959579</v>
+        <v>-0.9780203048832047</v>
       </c>
       <c r="I6" t="n">
-        <v>0.05680689835793524</v>
+        <v>-0.9342705783769597</v>
       </c>
       <c r="J6" t="n">
         <v>4.262679877041315</v>
@@ -647,31 +647,31 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>-1.106490184121714</v>
+        <v>-1.106490184121713</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.9262462277806718</v>
+        <v>-0.9262462277806717</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.8103840762236278</v>
+        <v>-0.8103840762236283</v>
       </c>
       <c r="D7" t="n">
-        <v>0.2216433392247501</v>
+        <v>-1.01579387460934</v>
       </c>
       <c r="E7" t="n">
-        <v>0.04093651817929798</v>
+        <v>-0.9479301011044116</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.08336542995401888</v>
+        <v>-0.9087525558916962</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.15243464191675</v>
+        <v>-0.8853963558723891</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.2552573119779584</v>
+        <v>-0.8475211145659414</v>
       </c>
       <c r="I7" t="n">
-        <v>-0.3644428435134824</v>
+        <v>-0.8033144385497342</v>
       </c>
       <c r="J7" t="n">
         <v>4.61512051684126</v>
@@ -682,28 +682,28 @@
         <v>-1.02819701585895</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.9332575536465432</v>
+        <v>-0.9332575536465431</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.9240794495632824</v>
+        <v>-0.9240794495632827</v>
       </c>
       <c r="D8" t="n">
-        <v>0.05650657114425071</v>
+        <v>-0.9669207320726062</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.02715755608271543</v>
+        <v>-0.9272674097594589</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.02615519471112504</v>
+        <v>-0.9233861502166721</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1384457004124327</v>
+        <v>-0.889717405222334</v>
       </c>
       <c r="H8" t="n">
-        <v>-0.1323824204135306</v>
+        <v>-0.8851623638925538</v>
       </c>
       <c r="I8" t="n">
-        <v>-0.1550837337878085</v>
+        <v>-0.8742205710944905</v>
       </c>
       <c r="J8" t="n">
         <v>4.369447852467021</v>
@@ -711,31 +711,31 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>-0.9946428008891933</v>
+        <v>-0.9946428008891935</v>
       </c>
       <c r="B9" t="n">
-        <v>-0.7790083845973695</v>
+        <v>-0.7790083845973694</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9638728302321616</v>
+        <v>-0.963872830232162</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.01055816850178635</v>
+        <v>-0.9454043738752352</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2197710143097683</v>
+        <v>-0.8647753676430173</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.0169792460648265</v>
+        <v>-0.9274579271686781</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.4218338507145479</v>
+        <v>-0.7908226020577552</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.2549827146065909</v>
+        <v>-0.8518894591190298</v>
       </c>
       <c r="I9" t="n">
-        <v>-0.07532362299901442</v>
+        <v>-0.8979972470619442</v>
       </c>
       <c r="J9" t="n">
         <v>4.394449154672439</v>
@@ -743,31 +743,31 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>-0.9275343709496813</v>
+        <v>-0.9275343709496815</v>
       </c>
       <c r="B10" t="n">
-        <v>-0.9542915312441579</v>
+        <v>-0.9542915312441578</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.9695575988991442</v>
+        <v>-0.9695575988991446</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1380129580660552</v>
+        <v>-0.901344351253563</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.104765352800479</v>
+        <v>-0.9051936077860706</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.08056561725622174</v>
+        <v>-0.9105714207230491</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.09584592621654824</v>
+        <v>-0.9025810281431881</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.06331453172067772</v>
+        <v>-0.9055207547069473</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.06365484855258155</v>
+        <v>-0.9013498739811797</v>
       </c>
       <c r="J10" t="n">
         <v>4.454347296253507</v>
@@ -775,31 +775,31 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>-0.8827954176566735</v>
+        <v>-0.8827954176566738</v>
       </c>
       <c r="B11" t="n">
-        <v>-0.9753255088417724</v>
+        <v>-0.9753255088417723</v>
       </c>
       <c r="C11" t="n">
         <v>-1.123046352907678</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2180386031623787</v>
+        <v>-0.8712100352636114</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1299191911165723</v>
+        <v>-0.8998011493131197</v>
       </c>
       <c r="F11" t="n">
-        <v>0.01803056462248153</v>
+        <v>-0.9538107983047575</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.05229672749626676</v>
+        <v>-0.9152953633705698</v>
       </c>
       <c r="H11" t="n">
-        <v>0.1236487264033983</v>
+        <v>-0.9583899714943259</v>
       </c>
       <c r="I11" t="n">
-        <v>0.2773397510403495</v>
+        <v>-0.987708919107701</v>
       </c>
       <c r="J11" t="n">
         <v>4.454347296253507</v>
@@ -807,31 +807,31 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>-0.7709480344241537</v>
+        <v>-0.770948034424154</v>
       </c>
       <c r="B12" t="n">
-        <v>-0.7614800699326905</v>
+        <v>-0.7614800699326904</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.6739496282160421</v>
+        <v>-0.6739496282160425</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4007979647570281</v>
+        <v>-0.7932108587744684</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4155498731329026</v>
+        <v>-0.7871012870688514</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.4869686379920496</v>
+        <v>-0.7537356668559345</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.4508063689392189</v>
+        <v>-0.7790765633977556</v>
       </c>
       <c r="H12" t="n">
-        <v>-0.5162175207273711</v>
+        <v>-0.7479745712455614</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.5794433517009207</v>
+        <v>-0.7124136574488786</v>
       </c>
       <c r="J12" t="n">
         <v>4.709530201312334</v>
@@ -839,31 +839,31 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>-0.7709480344241537</v>
+        <v>-0.770948034424154</v>
       </c>
       <c r="B13" t="n">
-        <v>-0.680849822475168</v>
+        <v>-0.6808498224751679</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.8160688448906105</v>
+        <v>-0.8160688448906108</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4007979647570281</v>
+        <v>-0.7932108587744684</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4803617423487941</v>
+        <v>-0.756674214143205</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.3697021773420936</v>
+        <v>-0.8079915780184511</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.5755878778600362</v>
+        <v>-0.7237094900812562</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.4695895571103684</v>
+        <v>-0.7704695044114656</v>
       </c>
       <c r="I13" t="n">
-        <v>-0.3546267611769943</v>
+        <v>-0.8069643427327444</v>
       </c>
       <c r="J13" t="n">
         <v>4.753590191106364</v>
@@ -871,31 +871,31 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-0.7709480344241537</v>
+        <v>-0.770948034424154</v>
       </c>
       <c r="B14" t="n">
-        <v>-0.7614800699326905</v>
+        <v>-0.7614800699326904</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.6114171728792321</v>
+        <v>-0.6114171728792326</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4007979647570281</v>
+        <v>-0.7932108587744684</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4155498731329026</v>
+        <v>-0.7871012870688514</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.5385658806780302</v>
+        <v>-0.7298630659444274</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.4508063689392189</v>
+        <v>-0.7790765633977556</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.5685568749702122</v>
+        <v>-0.7266805926180065</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.664776242725184</v>
+        <v>-0.6686313226562974</v>
       </c>
       <c r="J14" t="n">
         <v>4.836281906951478</v>
@@ -903,31 +903,31 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>-0.7373938194543979</v>
+        <v>-0.737393819454398</v>
       </c>
       <c r="B15" t="n">
-        <v>-0.5195893275601227</v>
+        <v>-0.5195893275601225</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.6910039342169905</v>
+        <v>-0.6910039342169909</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.4508051639875641</v>
+        <v>-0.7690691624416091</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.6281631733180376</v>
+        <v>-0.6837626319400099</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.497712190101959</v>
+        <v>-0.749302183829512</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.783297097917814</v>
+        <v>-0.6063942442943584</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.68566639522896</v>
+        <v>-0.670916156816081</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.5547297623057598</v>
+        <v>-0.7241230785608894</v>
       </c>
       <c r="J15" t="n">
         <v>4.875197323201151</v>
@@ -935,31 +935,31 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-0.6591006511916341</v>
+        <v>-0.6591006511916343</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.6142422267493882</v>
+        <v>-0.6142422267493881</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7592211582207832</v>
+        <v>-0.7592211582207835</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.5588362532857345</v>
+        <v>-0.7114068444078061</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.6055323111228063</v>
+        <v>-0.6930482438431989</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.5074933065970005</v>
+        <v>-0.7510487074459813</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.6681454663158857</v>
+        <v>-0.6763168677243964</v>
       </c>
       <c r="H16" t="n">
-        <v>-0.5677174362822424</v>
+        <v>-0.7282864015191419</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.4496997643586346</v>
+        <v>-0.7699698387963497</v>
       </c>
       <c r="J16" t="n">
         <v>4.795790545596741</v>
@@ -967,31 +967,31 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>-0.6591006511916341</v>
+        <v>-0.6591006511916343</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.7790083845973695</v>
+        <v>-0.7790083845973694</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.696688702883973</v>
+        <v>-0.6966887028839736</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.5588362532857345</v>
+        <v>-0.7114068444078061</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4923049973653742</v>
+        <v>-0.7581861183879576</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.5516049389451188</v>
+        <v>-0.7260393160148786</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.4218338507145479</v>
+        <v>-0.7908226020577552</v>
       </c>
       <c r="H17" t="n">
-        <v>-0.483762223719189</v>
+        <v>-0.7617055982052694</v>
       </c>
       <c r="I17" t="n">
-        <v>-0.5463546627214514</v>
+        <v>-0.7280041983935022</v>
       </c>
       <c r="J17" t="n">
         <v>4.795790545596741</v>
@@ -999,31 +999,31 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>-0.6591006511916341</v>
+        <v>-0.6591006511916343</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.6142422267493882</v>
+        <v>-0.6142422267493881</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.696688702883973</v>
+        <v>-0.6966887028839736</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.5588362532857345</v>
+        <v>-0.7114068444078061</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.6055323111228063</v>
+        <v>-0.6930482438431989</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.5516049389451188</v>
+        <v>-0.7260393160148786</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.6681454663158857</v>
+        <v>-0.6763168677243964</v>
       </c>
       <c r="H18" t="n">
-        <v>-0.6099365865478424</v>
+        <v>-0.7054206353654757</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.5463546627214514</v>
+        <v>-0.7280041983935022</v>
       </c>
       <c r="J18" t="n">
         <v>4.875197323201151</v>
@@ -1031,31 +1031,31 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>-0.6591006511916341</v>
+        <v>-0.6591006511916343</v>
       </c>
       <c r="B19" t="n">
-        <v>-0.694872474206911</v>
+        <v>-0.6948724742069109</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.696688702883973</v>
+        <v>-0.6966887028839736</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.5588362532857345</v>
+        <v>-0.7114068444078061</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.5501232001351267</v>
+        <v>-0.7249242250034</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.5516049389451188</v>
+        <v>-0.7260393160148786</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.5548889162051157</v>
+        <v>-0.7334961277644333</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.5481916855891397</v>
+        <v>-0.7329643405849492</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.5463546627214514</v>
+        <v>-0.7280041983935022</v>
       </c>
       <c r="J19" t="n">
         <v>4.912654885736052</v>
@@ -1063,31 +1063,31 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>-0.6591006511916341</v>
+        <v>-0.6591006511916343</v>
       </c>
       <c r="B20" t="n">
-        <v>-0.8210763397925988</v>
+        <v>-0.8210763397925986</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.423819806868802</v>
+        <v>-0.4238198068688024</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.5588362532857345</v>
+        <v>-0.7114068444078061</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.463395895980498</v>
+        <v>-0.7748170650802364</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.7440920619187253</v>
+        <v>-0.6169074261337024</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.3496097708228789</v>
+        <v>-0.818590113043583</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.6978120481932976</v>
+        <v>-0.6859331917516981</v>
       </c>
       <c r="I20" t="n">
-        <v>-0.8709580835083397</v>
+        <v>-0.5292908629637253</v>
       </c>
       <c r="J20" t="n">
         <v>4.709530201312334</v>
@@ -1095,31 +1095,31 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-0.6031769595753742</v>
+        <v>-0.6031769595753744</v>
       </c>
       <c r="B21" t="n">
-        <v>-0.7018838000727824</v>
+        <v>-0.7018838000727823</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.6398410162141457</v>
+        <v>-0.6398410162141461</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6285849951503591</v>
+        <v>-0.6690780230204053</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.5862303757537122</v>
+        <v>-0.7092382184640916</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.6300033400729106</v>
+        <v>-0.6845981343459849</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.5443811979569226</v>
+        <v>-0.7383645653237764</v>
       </c>
       <c r="H21" t="n">
-        <v>-0.5866799103161294</v>
+        <v>-0.7154229196225473</v>
       </c>
       <c r="I21" t="n">
-        <v>-0.6270178383812965</v>
+        <v>-0.6886975379610829</v>
       </c>
       <c r="J21" t="n">
         <v>4.875197323201151</v>
@@ -1127,31 +1127,31 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>-0.6031769595753742</v>
+        <v>-0.6031769595753744</v>
       </c>
       <c r="B22" t="n">
-        <v>-0.3758571473097563</v>
+        <v>-0.3758571473097561</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.6398410162141457</v>
+        <v>-0.6398410162141461</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6285849951503591</v>
+        <v>-0.6690780230204053</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.7912659872425084</v>
+        <v>-0.5774190671247225</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.6300033400729106</v>
+        <v>-0.6845981343459849</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.9213931555260159</v>
+        <v>-0.4944346945107754</v>
       </c>
       <c r="H22" t="n">
-        <v>-0.8159722358872215</v>
+        <v>-0.6008865584665697</v>
       </c>
       <c r="I22" t="n">
-        <v>-0.6270178383812965</v>
+        <v>-0.6886975379610829</v>
       </c>
       <c r="J22" t="n">
         <v>5.017279836814924</v>
@@ -1159,31 +1159,31 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-0.5808074829288703</v>
+        <v>-0.5808074829288705</v>
       </c>
       <c r="B23" t="n">
-        <v>-0.6703328336763605</v>
+        <v>-0.6703328336763604</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.634156247547163</v>
+        <v>-0.6341562475471636</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.654754016781593</v>
+        <v>-0.6518801558140187</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.6217068073420819</v>
+        <v>-0.6889850011854263</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.6488558983166766</v>
+        <v>-0.6747700635811178</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.5908351836149444</v>
+        <v>-0.716325969574944</v>
       </c>
       <c r="H23" t="n">
-        <v>-0.613058078034329</v>
+        <v>-0.7023144838257797</v>
       </c>
       <c r="I23" t="n">
-        <v>-0.6347067557026624</v>
+        <v>-0.6847063154381832</v>
       </c>
       <c r="J23" t="n">
         <v>4.983606621708336</v>
@@ -1191,31 +1191,31 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>-0.5472532679591142</v>
+        <v>-0.5472532679591144</v>
       </c>
       <c r="B24" t="n">
-        <v>-0.9262462277806718</v>
+        <v>-0.9262462277806717</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.634156247547163</v>
+        <v>-0.6341562475471636</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.6921534687484983</v>
+        <v>-0.6257979921636248</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4991380576927086</v>
+        <v>-0.783510514487564</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.6716298956124365</v>
+        <v>-0.6635158374371215</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.15243464191675</v>
+        <v>-0.8853963558723891</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.4346750098546246</v>
+        <v>-0.7924677255020184</v>
       </c>
       <c r="I24" t="n">
-        <v>-0.6347067557026624</v>
+        <v>-0.6847063154381832</v>
       </c>
       <c r="J24" t="n">
         <v>5.017279836814924</v>
@@ -1223,31 +1223,31 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-0.4913295763428544</v>
+        <v>-0.4913295763428546</v>
       </c>
       <c r="B25" t="n">
-        <v>-0.5546459568894803</v>
+        <v>-0.5546459568894802</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.5829933295443184</v>
+        <v>-0.5829933295443188</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.7495416740801513</v>
+        <v>-0.5815667518374643</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.7435075677324429</v>
+        <v>-0.6101454944225968</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.7364910079149382</v>
+        <v>-0.6229014125097518</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.7428900422663717</v>
+        <v>-0.6326439970632188</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.724888444270317</v>
+        <v>-0.6423313975208713</v>
       </c>
       <c r="I25" t="n">
-        <v>-0.7008191914117152</v>
+        <v>-0.6482898506257946</v>
       </c>
       <c r="J25" t="n">
         <v>5.14166355650266</v>
@@ -1255,31 +1255,31 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-0.4354058847265945</v>
+        <v>-0.4354058847265947</v>
       </c>
       <c r="B26" t="n">
-        <v>-0.2005740006629678</v>
+        <v>-0.2005740006629677</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.5829933295443184</v>
+        <v>-0.5829933295443188</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.8007496111453187</v>
+        <v>-0.5363843020419241</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.936585323648404</v>
+        <v>-0.4376624185004022</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.7713853749363214</v>
+        <v>-0.6036793182693174</v>
       </c>
       <c r="G26" t="n">
-        <v>-1.029804626516249</v>
+        <v>-0.3484645053379651</v>
       </c>
       <c r="H26" t="n">
-        <v>-0.9517805854101957</v>
+        <v>-0.5145062872804986</v>
       </c>
       <c r="I26" t="n">
-        <v>-0.7008191914117152</v>
+        <v>-0.6482898506257946</v>
       </c>
       <c r="J26" t="n">
         <v>5.420534999272286</v>
@@ -1287,31 +1287,31 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>-0.4354058847265945</v>
+        <v>-0.4354058847265947</v>
       </c>
       <c r="B27" t="n">
-        <v>-0.5195893275601227</v>
+        <v>-0.5195893275601225</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.5261456428744912</v>
+        <v>-0.5261456428744917</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.8007496111453187</v>
+        <v>-0.5363843020419241</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.791762406155178</v>
+        <v>-0.5752457047728906</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.7978766582748607</v>
+        <v>-0.5788766160235957</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.783297097917814</v>
+        <v>-0.6063942442943584</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.7798196534742433</v>
+        <v>-0.6079698087465778</v>
       </c>
       <c r="I27" t="n">
-        <v>-0.7677587218127074</v>
+        <v>-0.6067811363876376</v>
       </c>
       <c r="J27" t="n">
         <v>4.983606621708336</v>
@@ -1319,31 +1319,31 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>-0.3682974547870826</v>
+        <v>-0.3682974547870827</v>
       </c>
       <c r="B28" t="n">
-        <v>-0.3968911249073707</v>
+        <v>-0.3968911249073705</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.3271787395300956</v>
+        <v>-0.327178739530096</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.8540411815117587</v>
+        <v>-0.4809097657876945</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.8752337862649445</v>
+        <v>-0.496891267288586</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.9140956195561094</v>
+        <v>-0.4662103410724041</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.9039531312266663</v>
+        <v>-0.5112544413086424</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.9375781903110277</v>
+        <v>-0.4823458814702611</v>
       </c>
       <c r="I28" t="n">
-        <v>-0.9480102250094492</v>
+        <v>-0.4528300496939954</v>
       </c>
       <c r="J28" t="n">
         <v>5.241747015059643</v>
@@ -1354,28 +1354,28 @@
         <v>-0.3235585014940749</v>
       </c>
       <c r="B29" t="n">
-        <v>-0.4985553499625079</v>
+        <v>-0.4985553499625078</v>
       </c>
       <c r="C29" t="n">
-        <v>-0.6057324042122493</v>
+        <v>-0.6057324042122497</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.8846246804761965</v>
+        <v>-0.4431657740427044</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.8594505849533024</v>
+        <v>-0.5256048487368463</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.8332996357665313</v>
+        <v>-0.5755695890574993</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.806275431942816</v>
+        <v>-0.5904453423750791</v>
       </c>
       <c r="H29" t="n">
-        <v>-0.7483708223300629</v>
+        <v>-0.630845781312751</v>
       </c>
       <c r="I29" t="n">
-        <v>-0.6721220689150789</v>
+        <v>-0.6645850487882542</v>
       </c>
       <c r="J29" t="n">
         <v>5.198497031265826</v>
@@ -1383,31 +1383,31 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>-0.2564500715545628</v>
+        <v>-0.256450071554563</v>
       </c>
       <c r="B30" t="n">
-        <v>-0.456487394767279</v>
+        <v>-0.4564873947672788</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.2873853588612162</v>
+        <v>-0.2873853588612167</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.9230836070030707</v>
+        <v>-0.3854083350619631</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.9055825024965625</v>
+        <v>-0.4819108160634955</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.9641835882096834</v>
+        <v>-0.4045962949103233</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.8493838264196274</v>
+        <v>-0.5580996754561043</v>
       </c>
       <c r="H30" t="n">
-        <v>-0.936112497504027</v>
+        <v>-0.4908410188137672</v>
       </c>
       <c r="I30" t="n">
-        <v>-0.973973646383541</v>
+        <v>-0.4204213228080495</v>
       </c>
       <c r="J30" t="n">
         <v>5.288267030694535</v>
@@ -1415,31 +1415,31 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>-0.1557874266452952</v>
+        <v>-0.1557874266452953</v>
       </c>
       <c r="B31" t="n">
-        <v>-0.242641955858197</v>
+        <v>-0.2426419558581969</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.3442330455310438</v>
+        <v>-0.3442330455310444</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.9640852724738701</v>
+        <v>-0.2962039110235263</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.9882274911222965</v>
+        <v>-0.3428849211574724</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.9856670468400519</v>
+        <v>-0.3925463154026103</v>
       </c>
       <c r="G31" t="n">
-        <v>-1.009798895466444</v>
+        <v>-0.3844428394647635</v>
       </c>
       <c r="H31" t="n">
-        <v>-0.9885015296188961</v>
+        <v>-0.4272414603438022</v>
       </c>
       <c r="I31" t="n">
-        <v>-0.9358537710261389</v>
+        <v>-0.4665543500382562</v>
       </c>
       <c r="J31" t="n">
         <v>5.389071729816501</v>
@@ -1447,31 +1447,31 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>-0.06630952005927926</v>
+        <v>-0.06630952005927944</v>
       </c>
       <c r="B32" t="n">
-        <v>0.1605092814294164</v>
+        <v>0.1605092814294165</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2242438211672293</v>
+        <v>0.2242438211672288</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.983720867651962</v>
+        <v>-0.2143237998993136</v>
       </c>
       <c r="E32" t="n">
-        <v>-1.038736655430802</v>
+        <v>-0.1089744356911825</v>
       </c>
       <c r="F32" t="n">
-        <v>-1.058977420291767</v>
+        <v>-0.07618784825842811</v>
       </c>
       <c r="G32" t="n">
-        <v>-1.045326963978621</v>
+        <v>-0.01509057173324956</v>
       </c>
       <c r="H32" t="n">
-        <v>-1.040747395582881</v>
+        <v>0.01779214634583823</v>
       </c>
       <c r="I32" t="n">
-        <v>-1.008270506275977</v>
+        <v>0.04432213289290767</v>
       </c>
       <c r="J32" t="n">
         <v>5.707110264748875</v>
@@ -1479,31 +1479,31 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>-0.04394004341277539</v>
+        <v>-0.04394004341277556</v>
       </c>
       <c r="B33" t="n">
-        <v>-0.242641955858197</v>
+        <v>-0.2426419558581969</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.2305376721913891</v>
+        <v>-0.2305376721913897</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.9861576591398906</v>
+        <v>-0.1934732883305087</v>
       </c>
       <c r="E33" t="n">
-        <v>-1.016523369144463</v>
+        <v>-0.2977167818454878</v>
       </c>
       <c r="F33" t="n">
-        <v>-1.032221224119843</v>
+        <v>-0.2929221280489609</v>
       </c>
       <c r="G33" t="n">
-        <v>-1.009798895466444</v>
+        <v>-0.3844428394647635</v>
       </c>
       <c r="H33" t="n">
-        <v>-1.018824589773339</v>
+        <v>-0.3784548085593098</v>
       </c>
       <c r="I33" t="n">
-        <v>-1.005231699111517</v>
+        <v>-0.3731872686749744</v>
       </c>
       <c r="J33" t="n">
         <v>5.564520407322694</v>
@@ -1511,31 +1511,31 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>-0.04394004341277539</v>
+        <v>-0.04394004341277556</v>
       </c>
       <c r="B34" t="n">
-        <v>-0.2847099110534262</v>
+        <v>-0.2847099110534261</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2305376721913891</v>
+        <v>-0.2305376721913897</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.9861576591398906</v>
+        <v>-0.1934732883305087</v>
       </c>
       <c r="E34" t="n">
-        <v>-1.014596095718805</v>
+        <v>-0.3185054652108364</v>
       </c>
       <c r="F34" t="n">
-        <v>-1.032221224119843</v>
+        <v>-0.2929221280489609</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.9859954663190492</v>
+        <v>-0.4198240228176731</v>
       </c>
       <c r="H34" t="n">
-        <v>-1.008164578997683</v>
+        <v>-0.3961731406718368</v>
       </c>
       <c r="I34" t="n">
-        <v>-1.005231699111517</v>
+        <v>-0.3731872686749744</v>
       </c>
       <c r="J34" t="n">
         <v>5.583496308781699</v>
@@ -1543,31 +1543,31 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>-0.04394004341277539</v>
+        <v>-0.04394004341277556</v>
       </c>
       <c r="B35" t="n">
-        <v>-0.2040796635959034</v>
+        <v>-0.2040796635959033</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.09978799285078607</v>
+        <v>-0.09978799285078657</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.9861576591398906</v>
+        <v>-0.1934732883305087</v>
       </c>
       <c r="E35" t="n">
-        <v>-1.018290036451317</v>
+        <v>-0.2786604887605849</v>
       </c>
       <c r="F35" t="n">
-        <v>-1.038370118325944</v>
+        <v>-0.2275566731722146</v>
       </c>
       <c r="G35" t="n">
-        <v>-1.028282533231104</v>
+        <v>-0.3514855076905898</v>
       </c>
       <c r="H35" t="n">
-        <v>-1.057925769031572</v>
+        <v>-0.3052476137825519</v>
       </c>
       <c r="I35" t="n">
-        <v>-1.051084603507188</v>
+        <v>-0.2603705470725137</v>
       </c>
       <c r="J35" t="n">
         <v>5.525452939131783</v>
@@ -1575,31 +1575,31 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>0.0119836482034845</v>
+        <v>0.01198364820348432</v>
       </c>
       <c r="B36" t="n">
-        <v>-0.01477386521737204</v>
+        <v>-0.01477386521737189</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3101244335291471</v>
+        <v>-0.3101244335291477</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.9879234500731722</v>
+        <v>-0.1406811627799301</v>
       </c>
       <c r="E36" t="n">
-        <v>-1.027824199685824</v>
+        <v>-0.1604799736290886</v>
       </c>
       <c r="F36" t="n">
-        <v>-1.047040545235141</v>
+        <v>-0.3110074317697996</v>
       </c>
       <c r="G36" t="n">
-        <v>-1.072735945784145</v>
+        <v>-0.1824171948333319</v>
       </c>
       <c r="H36" t="n">
-        <v>-1.075273907806721</v>
+        <v>-0.3197271109927891</v>
       </c>
       <c r="I36" t="n">
-        <v>-0.9595491149561114</v>
+        <v>-0.4390066569284765</v>
       </c>
       <c r="J36" t="n">
         <v>5.525452939131783</v>
@@ -1607,31 +1607,31 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>0.09027681646624826</v>
+        <v>0.09027681646624806</v>
       </c>
       <c r="B37" t="n">
-        <v>-0.09540411267489485</v>
+        <v>-0.09540411267489469</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.05999461218190728</v>
+        <v>-0.0599946121819078</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.9800127066920705</v>
+        <v>-0.06517415510056225</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.036619574773829</v>
+        <v>-0.1675796239784061</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.048859694370819</v>
+        <v>-0.1501205698692176</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.063204024963805</v>
+        <v>-0.2559061353852058</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.074018661418233</v>
+        <v>-0.2389739752356964</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.057834921518886</v>
+        <v>-0.2248789448585352</v>
       </c>
       <c r="J37" t="n">
         <v>5.707110264748875</v>
@@ -1639,31 +1639,31 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>0.235678414668524</v>
+        <v>0.2356784146685239</v>
       </c>
       <c r="B38" t="n">
-        <v>-0.08488712387608746</v>
+        <v>-0.08488712387608731</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01390738048886817</v>
+        <v>0.01390738048886765</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.9331839311414414</v>
+        <v>0.07999943411618192</v>
       </c>
       <c r="E38" t="n">
-        <v>-1.048498587342887</v>
+        <v>-0.09975181979819175</v>
       </c>
       <c r="F38" t="n">
-        <v>-1.039554934897278</v>
+        <v>-0.04747872040900517</v>
       </c>
       <c r="G38" t="n">
-        <v>-1.065238506087514</v>
+        <v>-0.2464450278114056</v>
       </c>
       <c r="H38" t="n">
-        <v>-1.081607640908124</v>
+        <v>-0.200536625733521</v>
       </c>
       <c r="I38" t="n">
-        <v>-1.0614508569795</v>
+        <v>-0.1575346343445598</v>
       </c>
       <c r="J38" t="n">
         <v>5.771441123130016</v>
@@ -1671,31 +1671,31 @@
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>0.548851087719579</v>
+        <v>0.5488510877195788</v>
       </c>
       <c r="B39" t="n">
-        <v>0.7599776429614323</v>
+        <v>0.7599776429614324</v>
       </c>
       <c r="C39" t="n">
-        <v>0.7245034638617096</v>
+        <v>0.7245034638617091</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.6904229936338824</v>
+        <v>0.4145207803076675</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.5927422238434369</v>
+        <v>0.5326273289736703</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.6174734491323753</v>
+        <v>0.514261147619518</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.4532590489605786</v>
+        <v>0.6355238573802483</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.4751006715907086</v>
+        <v>0.6171058844945548</v>
       </c>
       <c r="I39" t="n">
-        <v>-0.504387265389693</v>
+        <v>0.5849703832776463</v>
       </c>
       <c r="J39" t="n">
         <v>6.244166900663736</v>
@@ -1703,31 +1703,31 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>0.738991639214863</v>
+        <v>0.7389916392148628</v>
       </c>
       <c r="B40" t="n">
-        <v>0.8406078904189551</v>
+        <v>0.8406078904189552</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9348399045400708</v>
+        <v>0.9348399045400702</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.4484743199556322</v>
+        <v>0.6321765310911519</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3799537169832413</v>
+        <v>0.6900291600544578</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.3036744764155096</v>
+        <v>0.7519433763484169</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.3147862355887265</v>
+        <v>0.7322850905922876</v>
       </c>
       <c r="H40" t="n">
-        <v>-0.2165461235733629</v>
+        <v>0.7933638242191697</v>
       </c>
       <c r="I40" t="n">
-        <v>-0.1338476180752043</v>
+        <v>0.8377496447728</v>
       </c>
       <c r="J40" t="n">
         <v>6.322565239927284</v>
@@ -1735,7 +1735,7 @@
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>0.7949153308311228</v>
+        <v>0.7949153308311226</v>
       </c>
       <c r="B41" t="n">
         <v>1.271804431170055</v>
@@ -1744,22 +1744,22 @@
         <v>1.736392286584636</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.3637163551581136</v>
+        <v>0.6982855892130476</v>
       </c>
       <c r="E41" t="n">
-        <v>0.02643816581809487</v>
+        <v>0.9935439371885466</v>
       </c>
       <c r="F41" t="n">
-        <v>0.4342232082287351</v>
+        <v>1.29496753864069</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6625445882223419</v>
+        <v>1.286982176649903</v>
       </c>
       <c r="H41" t="n">
-        <v>1.347040646319932</v>
+        <v>1.611938520122905</v>
       </c>
       <c r="I41" t="n">
-        <v>2.13929899751158</v>
+        <v>1.939211453268321</v>
       </c>
       <c r="J41" t="n">
         <v>6.734591659972948</v>
@@ -1767,7 +1767,7 @@
     </row>
     <row r="42">
       <c r="A42" t="n">
-        <v>0.9626864056799025</v>
+        <v>0.9626864056799023</v>
       </c>
       <c r="B42" t="n">
         <v>1.057958992260973</v>
@@ -1776,22 +1776,22 @@
         <v>1.202024031888259</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.0723608511666434</v>
+        <v>0.9023200203950132</v>
       </c>
       <c r="E42" t="n">
-        <v>0.03426406397076825</v>
+        <v>0.9618569440589395</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1954310232544381</v>
+        <v>1.061305414567452</v>
       </c>
       <c r="G42" t="n">
-        <v>0.127980905410169</v>
+        <v>1.004046749036917</v>
       </c>
       <c r="H42" t="n">
-        <v>0.3174941300429188</v>
+        <v>1.102121411112463</v>
       </c>
       <c r="I42" t="n">
-        <v>0.4722902585696965</v>
+        <v>1.1805818966536</v>
       </c>
       <c r="J42" t="n">
         <v>6.530877627725885</v>
@@ -1799,31 +1799,31 @@
     </row>
     <row r="43">
       <c r="A43" t="n">
-        <v>0.9067627140636426</v>
+        <v>0.9067627140636424</v>
       </c>
       <c r="B43" t="n">
-        <v>0.9633060930717069</v>
+        <v>0.963306093071707</v>
       </c>
       <c r="C43" t="n">
-        <v>1.133806807884467</v>
+        <v>1.133806807884466</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1756596207636191</v>
+        <v>0.8333573338649782</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.1169100954933776</v>
+        <v>0.8663549925987322</v>
       </c>
       <c r="F43" t="n">
-        <v>0.05728141103692338</v>
+        <v>0.9812133552323086</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.07729823997206785</v>
+        <v>0.8837395290600137</v>
       </c>
       <c r="H43" t="n">
-        <v>0.1202053066595965</v>
+        <v>0.9957910056122866</v>
       </c>
       <c r="I43" t="n">
-        <v>0.3031218242449499</v>
+        <v>1.090738101379499</v>
       </c>
       <c r="J43" t="n">
         <v>6.55250788703459</v>
@@ -1837,25 +1837,25 @@
         <v>1.04393634052923</v>
       </c>
       <c r="C44" t="n">
-        <v>0.8609379118692954</v>
+        <v>0.8609379118692948</v>
       </c>
       <c r="D44" t="n">
-        <v>0.03711818669681741</v>
+        <v>0.972233916394428</v>
       </c>
       <c r="E44" t="n">
-        <v>0.08105884676800459</v>
+        <v>0.9868033640973576</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.104473392871012</v>
+        <v>0.8673276140873689</v>
       </c>
       <c r="G44" t="n">
-        <v>0.09635602660940398</v>
+        <v>0.9860327006912724</v>
       </c>
       <c r="H44" t="n">
-        <v>-0.09241637678479309</v>
+        <v>0.8715109226494204</v>
       </c>
       <c r="I44" t="n">
-        <v>-0.2747416671903078</v>
+        <v>0.7472177076844058</v>
       </c>
       <c r="J44" t="n">
         <v>6.55250788703459</v>
@@ -1866,28 +1866,28 @@
         <v>1.018610097296162</v>
       </c>
       <c r="B45" t="n">
-        <v>0.9492834413399641</v>
+        <v>0.9492834413399642</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9234703672061055</v>
+        <v>0.923470367206105</v>
       </c>
       <c r="D45" t="n">
-        <v>0.03711818669681741</v>
+        <v>0.972233916394428</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.01946598304758774</v>
+        <v>0.9238703499095301</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.03630087015119284</v>
+        <v>0.9093888633124055</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1060748451996398</v>
+        <v>0.8661733437947861</v>
       </c>
       <c r="H45" t="n">
-        <v>-0.1167401493542421</v>
+        <v>0.8535646473242322</v>
       </c>
       <c r="I45" t="n">
-        <v>-0.1562784261206106</v>
+        <v>0.8237005414921933</v>
       </c>
       <c r="J45" t="n">
         <v>6.53813982376767</v>
@@ -1904,22 +1904,22 @@
         <v>1.560164457908171</v>
       </c>
       <c r="D46" t="n">
-        <v>0.5368370208155213</v>
+        <v>1.261401595085885</v>
       </c>
       <c r="E46" t="n">
-        <v>0.4607609127352231</v>
+        <v>1.197084046138368</v>
       </c>
       <c r="F46" t="n">
-        <v>1.031346456251278</v>
+        <v>1.49245905527225</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3438280499627833</v>
+        <v>1.122755346629555</v>
       </c>
       <c r="H46" t="n">
-        <v>0.8902737358967573</v>
+        <v>1.401570749799175</v>
       </c>
       <c r="I46" t="n">
-        <v>1.522535098394823</v>
+        <v>1.67827358242291</v>
       </c>
       <c r="J46" t="n">
         <v>6.803505257608338</v>
@@ -1933,25 +1933,25 @@
         <v>1.149106228517303</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7131339265277444</v>
+        <v>0.7131339265277439</v>
       </c>
       <c r="D47" t="n">
-        <v>0.5368370208155213</v>
+        <v>1.261401595085885</v>
       </c>
       <c r="E47" t="n">
-        <v>0.4607609127352231</v>
+        <v>1.197084046138368</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.09487334065199959</v>
+        <v>0.8919236271477097</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3438280499627833</v>
+        <v>1.122755346629555</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.1795779634975618</v>
+        <v>0.8368635543249247</v>
       </c>
       <c r="I47" t="n">
-        <v>-0.5217403246893239</v>
+        <v>0.5717360399051625</v>
       </c>
       <c r="J47" t="n">
         <v>6.478509642208569</v>
@@ -1965,25 +1965,25 @@
         <v>1.601336746866017</v>
       </c>
       <c r="C48" t="n">
-        <v>1.480577696570413</v>
+        <v>1.480577696570412</v>
       </c>
       <c r="D48" t="n">
-        <v>0.5368370208155213</v>
+        <v>1.261401595085885</v>
       </c>
       <c r="E48" t="n">
-        <v>1.046520629129086</v>
+        <v>1.514016973444636</v>
       </c>
       <c r="F48" t="n">
-        <v>0.9255271464751313</v>
+        <v>1.436032907663233</v>
       </c>
       <c r="G48" t="n">
-        <v>1.678425061770058</v>
+        <v>1.753191055842062</v>
       </c>
       <c r="H48" t="n">
-        <v>1.52571278495183</v>
+        <v>1.671084680602221</v>
       </c>
       <c r="I48" t="n">
-        <v>1.26561130459253</v>
+        <v>1.563898907752889</v>
       </c>
       <c r="J48" t="n">
         <v>6.710523109452428</v>
@@ -1991,31 +1991,31 @@
     </row>
     <row r="49">
       <c r="A49" t="n">
-        <v>1.354152246993722</v>
+        <v>1.354152246993721</v>
       </c>
       <c r="B49" t="n">
         <v>1.426053600219228</v>
       </c>
       <c r="C49" t="n">
-        <v>1.344143248562828</v>
+        <v>1.344143248562827</v>
       </c>
       <c r="D49" t="n">
-        <v>0.8237780474737879</v>
+        <v>1.411692691247893</v>
       </c>
       <c r="E49" t="n">
-        <v>0.9857823151083358</v>
+        <v>1.46632899372473</v>
       </c>
       <c r="F49" t="n">
-        <v>0.9050267817998497</v>
+        <v>1.412780374307869</v>
       </c>
       <c r="G49" t="n">
-        <v>1.109052913954277</v>
+        <v>1.500646041051603</v>
       </c>
       <c r="H49" t="n">
-        <v>1.026598813521692</v>
+        <v>1.448646126419957</v>
       </c>
       <c r="I49" t="n">
-        <v>0.856460426407355</v>
+        <v>1.37284871956708</v>
       </c>
       <c r="J49" t="n">
         <v>6.746412128573374</v>
@@ -2023,7 +2023,7 @@
     </row>
     <row r="50">
       <c r="A50" t="n">
-        <v>1.354152246993722</v>
+        <v>1.354152246993721</v>
       </c>
       <c r="B50" t="n">
         <v>1.355940341560513</v>
@@ -2032,22 +2032,22 @@
         <v>1.406675703899637</v>
       </c>
       <c r="D50" t="n">
-        <v>0.8237780474737879</v>
+        <v>1.411692691247893</v>
       </c>
       <c r="E50" t="n">
-        <v>0.8867905436995176</v>
+        <v>1.41593218556631</v>
       </c>
       <c r="F50" t="n">
-        <v>0.9956561355332548</v>
+        <v>1.458251995091692</v>
       </c>
       <c r="G50" t="n">
-        <v>0.8997650872468079</v>
+        <v>1.40253085139738</v>
       </c>
       <c r="H50" t="n">
-        <v>1.016209488473936</v>
+        <v>1.444165511329289</v>
       </c>
       <c r="I50" t="n">
-        <v>1.039081709062184</v>
+        <v>1.459626154916691</v>
       </c>
       <c r="J50" t="n">
         <v>6.803505257608338</v>
@@ -2055,7 +2055,7 @@
     </row>
     <row r="51">
       <c r="A51" t="n">
-        <v>1.354152246993722</v>
+        <v>1.354152246993721</v>
       </c>
       <c r="B51" t="n">
         <v>1.583808432201338</v>
@@ -2064,22 +2064,22 @@
         <v>1.543110151907223</v>
       </c>
       <c r="D51" t="n">
-        <v>0.8237780474737879</v>
+        <v>1.411692691247893</v>
       </c>
       <c r="E51" t="n">
-        <v>1.208513800778178</v>
+        <v>1.579721812081177</v>
       </c>
       <c r="F51" t="n">
-        <v>1.193392907315233</v>
+        <v>1.557462804074579</v>
       </c>
       <c r="G51" t="n">
-        <v>1.618520895349737</v>
+        <v>1.727470030320916</v>
       </c>
       <c r="H51" t="n">
-        <v>1.606048162650729</v>
+        <v>1.704912133788638</v>
       </c>
       <c r="I51" t="n">
-        <v>1.466347798989048</v>
+        <v>1.653583054126075</v>
       </c>
       <c r="J51" t="n">
         <v>6.923628628138427</v>
@@ -2087,7 +2087,7 @@
     </row>
     <row r="52">
       <c r="A52" t="n">
-        <v>1.354152246993722</v>
+        <v>1.354152246993721</v>
       </c>
       <c r="B52" t="n">
         <v>1.149106228517303</v>
@@ -2096,22 +2096,22 @@
         <v>1.071274352547656</v>
       </c>
       <c r="D52" t="n">
-        <v>0.8237780474737879</v>
+        <v>1.411692691247893</v>
       </c>
       <c r="E52" t="n">
-        <v>0.5947648180435031</v>
+        <v>1.267261601498969</v>
       </c>
       <c r="F52" t="n">
-        <v>0.5095532382358929</v>
+        <v>1.214358756342094</v>
       </c>
       <c r="G52" t="n">
-        <v>0.3438280499627833</v>
+        <v>1.122755346629555</v>
       </c>
       <c r="H52" t="n">
-        <v>0.2727754396020493</v>
+        <v>1.075632368518735</v>
       </c>
       <c r="I52" t="n">
-        <v>0.1567309650734858</v>
+        <v>1.009774088077035</v>
       </c>
       <c r="J52" t="n">
         <v>6.710523109452428</v>
@@ -2128,22 +2128,22 @@
         <v>1.207708800555242</v>
       </c>
       <c r="D53" t="n">
-        <v>1.471823319988147</v>
+        <v>1.723689397204465</v>
       </c>
       <c r="E53" t="n">
-        <v>1.820131102299626</v>
+        <v>1.846824895320806</v>
       </c>
       <c r="F53" t="n">
-        <v>0.9964338612826434</v>
+        <v>1.455565035681739</v>
       </c>
       <c r="G53" t="n">
-        <v>2.142207639265342</v>
+        <v>1.946748770749322</v>
       </c>
       <c r="H53" t="n">
-        <v>1.217611796126922</v>
+        <v>1.554578481832352</v>
       </c>
       <c r="I53" t="n">
-        <v>0.4868336465676729</v>
+        <v>1.188140446341795</v>
       </c>
       <c r="J53" t="n">
         <v>7.00397413672268</v>
@@ -2160,22 +2160,22 @@
         <v>1.440784315901534</v>
       </c>
       <c r="D54" t="n">
-        <v>1.832927565844242</v>
+        <v>1.88539500699903</v>
       </c>
       <c r="E54" t="n">
-        <v>1.484683322341275</v>
+        <v>1.691791714223465</v>
       </c>
       <c r="F54" t="n">
-        <v>1.562508839153825</v>
+        <v>1.708759287773483</v>
       </c>
       <c r="G54" t="n">
-        <v>1.109052913954277</v>
+        <v>1.500646041051603</v>
       </c>
       <c r="H54" t="n">
-        <v>1.178081118416035</v>
+        <v>1.517644877106239</v>
       </c>
       <c r="I54" t="n">
-        <v>1.142192847324013</v>
+        <v>1.507520825191488</v>
       </c>
       <c r="J54" t="n">
         <v>6.90875477931522</v>
@@ -2192,22 +2192,22 @@
         <v>1.520371077239292</v>
       </c>
       <c r="D55" t="n">
-        <v>1.832927565844242</v>
+        <v>1.88539500699903</v>
       </c>
       <c r="E55" t="n">
-        <v>1.842893369501152</v>
+        <v>1.848903763657341</v>
       </c>
       <c r="F55" t="n">
-        <v>1.706436710649999</v>
+        <v>1.770972732573168</v>
       </c>
       <c r="G55" t="n">
-        <v>1.775643119022255</v>
+        <v>1.794560334455357</v>
       </c>
       <c r="H55" t="n">
-        <v>1.642622420229425</v>
+        <v>1.720881767224928</v>
       </c>
       <c r="I55" t="n">
-        <v>1.392392054949467</v>
+        <v>1.620816493496696</v>
       </c>
       <c r="J55" t="n">
         <v>7.00397413672268</v>
@@ -2224,22 +2224,22 @@
         <v>1.929674421262049</v>
       </c>
       <c r="D56" t="n">
-        <v>2.022750091172019</v>
+        <v>1.967674626100382</v>
       </c>
       <c r="E56" t="n">
-        <v>1.995323176803227</v>
+        <v>1.912970706028734</v>
       </c>
       <c r="F56" t="n">
-        <v>2.562135542396905</v>
+        <v>2.132988840768017</v>
       </c>
       <c r="G56" t="n">
-        <v>1.887030960545322</v>
+        <v>1.841418009243941</v>
       </c>
       <c r="H56" t="n">
-        <v>2.442591452126619</v>
+        <v>2.052243155684202</v>
       </c>
       <c r="I56" t="n">
-        <v>2.891572865630279</v>
+        <v>2.237567723407733</v>
       </c>
       <c r="J56" t="n">
         <v>6.90875477931522</v>
@@ -2247,31 +2247,31 @@
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>1.801541779923801</v>
+        <v>1.8015417799238</v>
       </c>
       <c r="B57" t="n">
         <v>1.622370724463632</v>
       </c>
       <c r="C57" t="n">
-        <v>1.622696913244982</v>
+        <v>1.622696913244981</v>
       </c>
       <c r="D57" t="n">
-        <v>2.218752884766281</v>
+        <v>2.050905454671114</v>
       </c>
       <c r="E57" t="n">
-        <v>2.019735306861568</v>
+        <v>1.922168123517646</v>
       </c>
       <c r="F57" t="n">
-        <v>2.085735989019645</v>
+        <v>1.929503337760407</v>
       </c>
       <c r="G57" t="n">
-        <v>1.751180367288475</v>
+        <v>1.784193133519788</v>
       </c>
       <c r="H57" t="n">
-        <v>1.813378957141959</v>
+        <v>1.792319850500435</v>
       </c>
       <c r="I57" t="n">
-        <v>1.733838799640658</v>
+        <v>1.769653310226513</v>
       </c>
       <c r="J57" t="n">
         <v>6.90875477931522</v>
